--- a/tables/output/TableS3-SF-dysreg.xlsx
+++ b/tables/output/TableS3-SF-dysreg.xlsx
@@ -2830,7 +2830,7 @@
         <v>0.00526390139382318</v>
       </c>
       <c r="G2" t="n">
-        <v>0.013786408412394</v>
+        <v>0.0137864084123941</v>
       </c>
     </row>
     <row r="3">
@@ -2841,19 +2841,19 @@
         <v>20695.6001039469</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.426390198265857</v>
+        <v>-0.426390198265856</v>
       </c>
       <c r="D3" t="n">
         <v>0.110143240096675</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.87123347644035</v>
+        <v>-3.87123347644034</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000108286012100656</v>
+        <v>0.00010828601210066</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000438996937403204</v>
+        <v>0.000438996937403186</v>
       </c>
     </row>
     <row r="4">
@@ -2864,19 +2864,19 @@
         <v>29148.7582539013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.231544677088</v>
+        <v>0.231544677088002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0976308004847728</v>
+        <v>0.0976308004847732</v>
       </c>
       <c r="E4" t="n">
-        <v>2.37163554880525</v>
+        <v>2.37163554880526</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01770954947492</v>
+        <v>0.0177095494749196</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0389610088448241</v>
+        <v>0.0389610088448231</v>
       </c>
     </row>
     <row r="5">
@@ -2896,10 +2896,10 @@
         <v>-2.85723448069365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00427350011746937</v>
+        <v>0.00427350011746931</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0117521253230408</v>
+        <v>0.0117521253230406</v>
       </c>
     </row>
     <row r="6">
@@ -2916,13 +2916,13 @@
         <v>0.166829842637553</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.25549854224045</v>
+        <v>-6.25549854224047</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000000000396248043756506</v>
+        <v>0.000000000396248043756461</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00000000653809272198235</v>
+        <v>0.0000000065380927219816</v>
       </c>
     </row>
     <row r="7">
@@ -2936,16 +2936,16 @@
         <v>-0.419120116778896</v>
       </c>
       <c r="D7" t="n">
-        <v>0.085349200757349</v>
+        <v>0.0853492007573493</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.91065075079578</v>
+        <v>-4.91065075079577</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00000090774638508023</v>
+        <v>0.000000907746385080303</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00000599112614152951</v>
+        <v>0.00000599112614153</v>
       </c>
     </row>
     <row r="8">
@@ -2959,16 +2959,16 @@
         <v>0.286745621567734</v>
       </c>
       <c r="D8" t="n">
-        <v>0.110624128498928</v>
+        <v>0.110624128498927</v>
       </c>
       <c r="E8" t="n">
-        <v>2.59207123670596</v>
+        <v>2.59207123670597</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00954000151895275</v>
+        <v>0.00954000151895255</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0234940335914508</v>
+        <v>0.0234940335914503</v>
       </c>
     </row>
     <row r="9">
@@ -2979,19 +2979,19 @@
         <v>10807.1048507377</v>
       </c>
       <c r="C9" t="n">
-        <v>0.304817539099174</v>
+        <v>0.304817539099175</v>
       </c>
       <c r="D9" t="n">
         <v>0.107033727503979</v>
       </c>
       <c r="E9" t="n">
-        <v>2.84786437142296</v>
+        <v>2.84786437142295</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00440136775912038</v>
+        <v>0.00440136775912046</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0119053390205715</v>
+        <v>0.0119053390205718</v>
       </c>
     </row>
     <row r="10">
@@ -3002,19 +3002,19 @@
         <v>12949.5559155795</v>
       </c>
       <c r="C10" t="n">
-        <v>0.27632446027973</v>
+        <v>0.276324460279729</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0862919089241126</v>
+        <v>0.0862919089241125</v>
       </c>
       <c r="E10" t="n">
         <v>3.20220590464323</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00136379477788508</v>
+        <v>0.0013637947778851</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00432742573751998</v>
+        <v>0.00432742573752004</v>
       </c>
     </row>
     <row r="11">
@@ -3025,19 +3025,19 @@
         <v>11521.5617377986</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.645919340064891</v>
+        <v>-0.645919340064893</v>
       </c>
       <c r="D11" t="n">
-        <v>0.112204696591984</v>
+        <v>0.112204696591985</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.75661589651351</v>
+        <v>-5.7566158965135</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00000000858168714636278</v>
+        <v>0.00000000858168714636323</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000000101141312796418</v>
+        <v>0.000000101141312796424</v>
       </c>
     </row>
     <row r="12">
@@ -3048,19 +3048,19 @@
         <v>9386.93094586632</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.274459278364716</v>
+        <v>-0.274459278364718</v>
       </c>
       <c r="D12" t="n">
         <v>0.106746707967673</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.5711263943412</v>
+        <v>-2.57112639434122</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0101368323270513</v>
+        <v>0.0101368323270505</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0245967254994628</v>
+        <v>0.0245967254994607</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>8263.16884720097</v>
       </c>
       <c r="C13" t="n">
-        <v>0.744304822208619</v>
+        <v>0.744304822208618</v>
       </c>
       <c r="D13" t="n">
         <v>0.110247896849414</v>
       </c>
       <c r="E13" t="n">
-        <v>6.75119293409521</v>
+        <v>6.7511929340952</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0000000000146634451827013</v>
+        <v>0.000000000014663445182702</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000000000403244742524285</v>
+        <v>0.000000000403244742524305</v>
       </c>
     </row>
     <row r="14">
@@ -3094,19 +3094,19 @@
         <v>6815.90432702727</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.612000231618727</v>
+        <v>-0.612000231618726</v>
       </c>
       <c r="D14" t="n">
         <v>0.173660084922466</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.52412721606101</v>
+        <v>-3.524127216061</v>
       </c>
       <c r="F14" t="n">
-        <v>0.000424880204529193</v>
+        <v>0.000424880204529211</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0014605257030691</v>
+        <v>0.00146052570306916</v>
       </c>
     </row>
     <row r="15">
@@ -3120,16 +3120,16 @@
         <v>-0.308777961962955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0787228444338636</v>
+        <v>0.0787228444338641</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.92234254470269</v>
+        <v>-3.92234254470267</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0000876921997101429</v>
+        <v>0.0000876921997101492</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000371005460312143</v>
+        <v>0.00037100546031217</v>
       </c>
     </row>
     <row r="16">
@@ -3146,13 +3146,13 @@
         <v>0.131326019017449</v>
       </c>
       <c r="E16" t="n">
-        <v>5.35775087099095</v>
+        <v>5.35775087099096</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0000000842643199695743</v>
+        <v>0.0000000842643199695676</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000000772422933054431</v>
+        <v>0.00000077242293305437</v>
       </c>
     </row>
     <row r="17">
@@ -3172,10 +3172,10 @@
         <v>-4.22944977701559</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0000234263567948354</v>
+        <v>0.0000234263567948351</v>
       </c>
       <c r="G17" t="n">
-        <v>0.000124688673262833</v>
+        <v>0.000124688673262832</v>
       </c>
     </row>
     <row r="18">
@@ -3192,13 +3192,13 @@
         <v>0.13564723284558</v>
       </c>
       <c r="E18" t="n">
-        <v>4.00234479209761</v>
+        <v>4.0023447920976</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0000627178101666841</v>
+        <v>0.000062717810166686</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000279687531824402</v>
+        <v>0.000279687531824411</v>
       </c>
     </row>
     <row r="19">
@@ -3215,13 +3215,13 @@
         <v>0.122648515607729</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.70609369858995</v>
+        <v>-5.70609369858997</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0000000115598379532899</v>
+        <v>0.000000011559837953289</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000000127158217486189</v>
+        <v>0.000000127158217486179</v>
       </c>
     </row>
     <row r="20">
@@ -3241,10 +3241,10 @@
         <v>-2.68286950826534</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00729934655548909</v>
+        <v>0.00729934655548913</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0182483663887227</v>
+        <v>0.0182483663887228</v>
       </c>
     </row>
     <row r="21">
@@ -3255,19 +3255,19 @@
         <v>7765.12516297977</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4690347030232</v>
+        <v>0.469034703023198</v>
       </c>
       <c r="D21" t="n">
         <v>0.10003573022973</v>
       </c>
       <c r="E21" t="n">
-        <v>4.68867175704193</v>
+        <v>4.68867175704191</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00000274984059133573</v>
+        <v>0.00000274984059133593</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0000168045813914961</v>
+        <v>0.0000168045813914973</v>
       </c>
     </row>
     <row r="22">
@@ -3278,19 +3278,19 @@
         <v>5909.74574598568</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.34844790343448</v>
+        <v>-0.348447903434481</v>
       </c>
       <c r="D22" t="n">
         <v>0.102454204781124</v>
       </c>
       <c r="E22" t="n">
-        <v>-3.40101125355351</v>
+        <v>-3.40101125355353</v>
       </c>
       <c r="F22" t="n">
-        <v>0.000671370639216036</v>
+        <v>0.00067137063921599</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00226073786674787</v>
+        <v>0.00226073786674772</v>
       </c>
     </row>
     <row r="23">
@@ -3301,19 +3301,19 @@
         <v>5845.03864393951</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.391796618290595</v>
+        <v>-0.391796618290593</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0764905534635966</v>
+        <v>0.0764905534635968</v>
       </c>
       <c r="E23" t="n">
-        <v>-5.12215692722185</v>
+        <v>-5.12215692722181</v>
       </c>
       <c r="F23" t="n">
-        <v>0.000000302060337126946</v>
+        <v>0.000000302060337127003</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0000022654525284521</v>
+        <v>0.00000226545252845252</v>
       </c>
     </row>
     <row r="24">
@@ -3330,13 +3330,13 @@
         <v>0.103155252088844</v>
       </c>
       <c r="E24" t="n">
-        <v>-3.05471785784056</v>
+        <v>-3.05471785784057</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00225272336096812</v>
+        <v>0.0022527233609681</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00654847399428835</v>
+        <v>0.00654847399428857</v>
       </c>
     </row>
     <row r="25">
@@ -3347,19 +3347,19 @@
         <v>7553.15867871537</v>
       </c>
       <c r="C25" t="n">
-        <v>0.314619696519195</v>
+        <v>0.314619696519197</v>
       </c>
       <c r="D25" t="n">
         <v>0.114641497745895</v>
       </c>
       <c r="E25" t="n">
-        <v>2.74437880440601</v>
+        <v>2.74437880440603</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00606255357631303</v>
+        <v>0.00606255357631267</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0153895590783331</v>
+        <v>0.0153895590783322</v>
       </c>
     </row>
     <row r="26">
@@ -3370,7 +3370,7 @@
         <v>4972.61765659095</v>
       </c>
       <c r="C26" t="n">
-        <v>0.824856401586166</v>
+        <v>0.824856401586164</v>
       </c>
       <c r="D26" t="n">
         <v>0.124580630803471</v>
@@ -3379,10 +3379,10 @@
         <v>6.62106457694372</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0000000000356621123419657</v>
+        <v>0.0000000000356621123419651</v>
       </c>
       <c r="G26" t="n">
-        <v>0.000000000735531067053043</v>
+        <v>0.000000000735531067053029</v>
       </c>
     </row>
     <row r="27">
@@ -3402,10 +3402,10 @@
         <v>-4.71725990438975</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00000239042239267024</v>
+        <v>0.00000239042239267027</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0000151699882611765</v>
+        <v>0.0000151699882611767</v>
       </c>
     </row>
     <row r="28">
@@ -3425,10 +3425,10 @@
         <v>2.56568451167832</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0102972438650351</v>
+        <v>0.010297243865035</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0246238440250839</v>
+        <v>0.0246238440250838</v>
       </c>
     </row>
     <row r="29">
@@ -3445,13 +3445,13 @@
         <v>0.162326470186866</v>
       </c>
       <c r="E29" t="n">
-        <v>3.84448654072074</v>
+        <v>3.84448654072073</v>
       </c>
       <c r="F29" t="n">
         <v>0.00012080511486437</v>
       </c>
       <c r="G29" t="n">
-        <v>0.000474591522681452</v>
+        <v>0.000474591522681455</v>
       </c>
     </row>
     <row r="30">
@@ -3462,19 +3462,19 @@
         <v>8321.27248764713</v>
       </c>
       <c r="C30" t="n">
-        <v>0.442310140569998</v>
+        <v>0.442310140569997</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0811023185133643</v>
+        <v>0.0811023185133633</v>
       </c>
       <c r="E30" t="n">
-        <v>5.45372991398653</v>
+        <v>5.45372991398658</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00000004932410049513</v>
+        <v>0.0000000493241004951149</v>
       </c>
       <c r="G30" t="n">
-        <v>0.000000508654786356028</v>
+        <v>0.000000508654786355873</v>
       </c>
     </row>
     <row r="31">
@@ -3485,19 +3485,19 @@
         <v>4920.33259087013</v>
       </c>
       <c r="C31" t="n">
-        <v>0.319553441377209</v>
+        <v>0.319553441377207</v>
       </c>
       <c r="D31" t="n">
         <v>0.130514142909693</v>
       </c>
       <c r="E31" t="n">
-        <v>2.44842002753923</v>
+        <v>2.44842002753922</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0143484278729527</v>
+        <v>0.0143484278729531</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0333449380146083</v>
+        <v>0.0333449380146094</v>
       </c>
     </row>
     <row r="32">
@@ -3511,16 +3511,16 @@
         <v>0.253932790059736</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0656251460156301</v>
+        <v>0.06562514601563</v>
       </c>
       <c r="E32" t="n">
-        <v>3.86944342949357</v>
+        <v>3.86944342949358</v>
       </c>
       <c r="F32" t="n">
-        <v>0.000109084087475948</v>
+        <v>0.000109084087475943</v>
       </c>
       <c r="G32" t="n">
-        <v>0.000438996937403204</v>
+        <v>0.000438996937403186</v>
       </c>
     </row>
     <row r="33">
@@ -3540,10 +3540,10 @@
         <v>3.9694208204245</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0000720475426423695</v>
+        <v>0.00007204754264237</v>
       </c>
       <c r="G33" t="n">
-        <v>0.000312838014105025</v>
+        <v>0.000312838014105028</v>
       </c>
     </row>
     <row r="34">
@@ -3563,10 +3563,10 @@
         <v>-5.77636125228586</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00000000763333923364344</v>
+        <v>0.00000000763333923364323</v>
       </c>
       <c r="G34" t="n">
-        <v>0.000000098348886820305</v>
+        <v>0.0000000983488868203081</v>
       </c>
     </row>
     <row r="35">
@@ -3586,10 +3586,10 @@
         <v>7.08529600838475</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00000000000138747409059672</v>
+        <v>0.00000000000138747409059668</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0000000000572333062371146</v>
+        <v>0.0000000000572333062371131</v>
       </c>
     </row>
     <row r="36">
@@ -3600,19 +3600,19 @@
         <v>8011.47950747092</v>
       </c>
       <c r="C36" t="n">
-        <v>0.461865811073516</v>
+        <v>0.461865811073517</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0927732464575346</v>
+        <v>0.0927732464575345</v>
       </c>
       <c r="E36" t="n">
-        <v>4.97843752061568</v>
+        <v>4.9784375206157</v>
       </c>
       <c r="F36" t="n">
-        <v>0.000000640996282396214</v>
+        <v>0.000000640996282396143</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00000440684944147397</v>
+        <v>0.00000440684944147349</v>
       </c>
     </row>
     <row r="37">
@@ -3623,7 +3623,7 @@
         <v>2572.4781615819</v>
       </c>
       <c r="C37" t="n">
-        <v>0.830334820385539</v>
+        <v>0.83033482038554</v>
       </c>
       <c r="D37" t="n">
         <v>0.187908486953006</v>
@@ -3632,10 +3632,10 @@
         <v>4.4188255349701</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00000992387156451011</v>
+        <v>0.00000992387156450995</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0000564634071773851</v>
+        <v>0.0000564634071773842</v>
       </c>
     </row>
     <row r="38">
@@ -3649,16 +3649,16 @@
         <v>0.985703439872193</v>
       </c>
       <c r="D38" t="n">
-        <v>0.143315987268341</v>
+        <v>0.14331598726834</v>
       </c>
       <c r="E38" t="n">
-        <v>6.87783309217687</v>
+        <v>6.87783309217689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00000000000607698093834262</v>
+        <v>0.00000000000607698093834209</v>
       </c>
       <c r="G38" t="n">
-        <v>0.000000000200540370965306</v>
+        <v>0.000000000200540370965289</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>5609.09778389332</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.472191420759123</v>
+        <v>-0.472191420759118</v>
       </c>
       <c r="D39" t="n">
         <v>0.144270747624673</v>
       </c>
       <c r="E39" t="n">
-        <v>-3.27295330850819</v>
+        <v>-3.27295330850815</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00106430057411887</v>
+        <v>0.00106430057411902</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00344332538685519</v>
+        <v>0.00344332538685567</v>
       </c>
     </row>
     <row r="40">
@@ -3692,19 +3692,19 @@
         <v>5570.21128549105</v>
       </c>
       <c r="C40" t="n">
-        <v>0.294494063052769</v>
+        <v>0.29449406305277</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0994137710645875</v>
+        <v>0.0994137710645874</v>
       </c>
       <c r="E40" t="n">
-        <v>2.96230652855369</v>
+        <v>2.9623065285537</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00305343636123773</v>
+        <v>0.00305343636123763</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0086864999931763</v>
+        <v>0.00868649999317602</v>
       </c>
     </row>
     <row r="41">
@@ -3715,19 +3715,19 @@
         <v>4505.28215180821</v>
       </c>
       <c r="C41" t="n">
-        <v>0.537296533517694</v>
+        <v>0.537296533517692</v>
       </c>
       <c r="D41" t="n">
-        <v>0.12818653219907</v>
+        <v>0.128186532199071</v>
       </c>
       <c r="E41" t="n">
-        <v>4.19152093671812</v>
+        <v>4.19152093671809</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0000277090611750379</v>
+        <v>0.0000277090611750422</v>
       </c>
       <c r="G41" t="n">
-        <v>0.000134470443937684</v>
+        <v>0.000134470443937705</v>
       </c>
     </row>
     <row r="42">
@@ -3738,7 +3738,7 @@
         <v>5989.31691729382</v>
       </c>
       <c r="C42" t="n">
-        <v>0.773449188600331</v>
+        <v>0.77344918860033</v>
       </c>
       <c r="D42" t="n">
         <v>0.121335303426986</v>
@@ -3747,10 +3747,10 @@
         <v>6.37447772210631</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000000000183587498912103</v>
+        <v>0.0000000001835874989121</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00000000336577081338856</v>
+        <v>0.0000000033657708133885</v>
       </c>
     </row>
     <row r="43">
@@ -3761,19 +3761,19 @@
         <v>3527.36388485117</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.583774938555082</v>
+        <v>-0.583774938555083</v>
       </c>
       <c r="D43" t="n">
         <v>0.135936363355528</v>
       </c>
       <c r="E43" t="n">
-        <v>-4.29447223792707</v>
+        <v>-4.29447223792708</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000017510939082998</v>
+        <v>0.0000175109390829969</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0000963101649564891</v>
+        <v>0.000096310164956483</v>
       </c>
     </row>
     <row r="44">
@@ -3784,19 +3784,19 @@
         <v>3943.99559274436</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.862327283372618</v>
+        <v>-0.862327283372619</v>
       </c>
       <c r="D44" t="n">
         <v>0.119938245484676</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.18976069633098</v>
+        <v>-7.18976069633099</v>
       </c>
       <c r="F44" t="n">
-        <v>0.000000000000649049795925285</v>
+        <v>0.000000000000649049795925255</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0000000000356977387758907</v>
+        <v>0.000000000035697738775889</v>
       </c>
     </row>
     <row r="45">
@@ -3807,19 +3807,19 @@
         <v>2413.33357173812</v>
       </c>
       <c r="C45" t="n">
-        <v>0.24532293746394</v>
+        <v>0.245322937463939</v>
       </c>
       <c r="D45" t="n">
         <v>0.101656292473663</v>
       </c>
       <c r="E45" t="n">
-        <v>2.41325875156719</v>
+        <v>2.41325875156718</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0158105907878572</v>
+        <v>0.0158105907878579</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0352944936432244</v>
+        <v>0.0352944936432246</v>
       </c>
     </row>
     <row r="46">
@@ -3836,13 +3836,13 @@
         <v>0.122810856743297</v>
       </c>
       <c r="E46" t="n">
-        <v>-4.00424868745826</v>
+        <v>-4.00424868745827</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0000622148901933658</v>
+        <v>0.0000622148901933632</v>
       </c>
       <c r="G46" t="n">
-        <v>0.000279687531824402</v>
+        <v>0.000279687531824411</v>
       </c>
     </row>
     <row r="47">
@@ -3853,19 +3853,19 @@
         <v>3198.20654158571</v>
       </c>
       <c r="C47" t="n">
-        <v>0.812524531488209</v>
+        <v>0.812524531488211</v>
       </c>
       <c r="D47" t="n">
         <v>0.156371201824987</v>
       </c>
       <c r="E47" t="n">
-        <v>5.19612640950088</v>
+        <v>5.19612640950089</v>
       </c>
       <c r="F47" t="n">
-        <v>0.000000203483918367271</v>
+        <v>0.000000203483918367264</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00000159880221574284</v>
+        <v>0.00000159880221574279</v>
       </c>
     </row>
     <row r="48">
@@ -3885,10 +3885,10 @@
         <v>5.89776368668541</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0000000036846115530566</v>
+        <v>0.00000000368461155305656</v>
       </c>
       <c r="G48" t="n">
-        <v>0.000000055269173295849</v>
+        <v>0.0000000552691732958484</v>
       </c>
     </row>
     <row r="49">
@@ -3899,7 +3899,7 @@
         <v>3290.80634432004</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215007722137241</v>
+        <v>0.21500772213724</v>
       </c>
       <c r="D49" t="n">
         <v>0.0891100508262116</v>
@@ -3908,10 +3908,10 @@
         <v>2.41283357089048</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0158290456339309</v>
+        <v>0.015829045633931</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0352944936432244</v>
+        <v>0.0352944936432246</v>
       </c>
     </row>
     <row r="50">
@@ -3922,19 +3922,19 @@
         <v>2248.54625600321</v>
       </c>
       <c r="C50" t="n">
-        <v>0.540216206993245</v>
+        <v>0.540216206993242</v>
       </c>
       <c r="D50" t="n">
         <v>0.101581942935737</v>
       </c>
       <c r="E50" t="n">
-        <v>5.31803380975885</v>
+        <v>5.31803380975884</v>
       </c>
       <c r="F50" t="n">
-        <v>0.000000104894580866617</v>
+        <v>0.000000104894580866625</v>
       </c>
       <c r="G50" t="n">
-        <v>0.000000874343957676198</v>
+        <v>0.000000874343957676224</v>
       </c>
     </row>
     <row r="51">
@@ -3951,13 +3951,13 @@
         <v>0.109744666437716</v>
       </c>
       <c r="E51" t="n">
-        <v>7.980313896399</v>
+        <v>7.98031389639899</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00000000000000145961619088123</v>
+        <v>0.00000000000000145961619088134</v>
       </c>
       <c r="G51" t="n">
-        <v>0.000000000000120418335747702</v>
+        <v>0.00000000000012041833574771</v>
       </c>
     </row>
     <row r="52">
@@ -3968,19 +3968,19 @@
         <v>2674.77711321578</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.272417488728755</v>
+        <v>-0.272417488728756</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0749241937389438</v>
+        <v>0.0749241937389434</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.63590817777674</v>
+        <v>-3.63590817777678</v>
       </c>
       <c r="F52" t="n">
-        <v>0.000277002995923748</v>
+        <v>0.000277002995923707</v>
       </c>
       <c r="G52" t="n">
-        <v>0.000993597702769964</v>
+        <v>0.000993597702769818</v>
       </c>
     </row>
     <row r="53">
@@ -3991,19 +3991,19 @@
         <v>3659.26967698857</v>
       </c>
       <c r="C53" t="n">
-        <v>0.431417837781226</v>
+        <v>0.431417837781225</v>
       </c>
       <c r="D53" t="n">
         <v>0.116556763991573</v>
       </c>
       <c r="E53" t="n">
-        <v>3.70135394126434</v>
+        <v>3.70135394126433</v>
       </c>
       <c r="F53" t="n">
-        <v>0.000214452088575589</v>
+        <v>0.000214452088575595</v>
       </c>
       <c r="G53" t="n">
-        <v>0.000797961673045969</v>
+        <v>0.000797961673045956</v>
       </c>
     </row>
     <row r="54">
@@ -4014,19 +4014,19 @@
         <v>2989.01732711208</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.507466822859255</v>
+        <v>-0.507466822859253</v>
       </c>
       <c r="D54" t="n">
         <v>0.143622044815019</v>
       </c>
       <c r="E54" t="n">
-        <v>-3.53334910050095</v>
+        <v>-3.53334910050094</v>
       </c>
       <c r="F54" t="n">
-        <v>0.000410330256619784</v>
+        <v>0.000410330256619796</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00144052111366519</v>
+        <v>0.00144052111366524</v>
       </c>
     </row>
     <row r="55">
@@ -4037,19 +4037,19 @@
         <v>3140.68184158604</v>
       </c>
       <c r="C55" t="n">
-        <v>0.540323356978823</v>
+        <v>0.540323356978825</v>
       </c>
       <c r="D55" t="n">
         <v>0.128767487514553</v>
       </c>
       <c r="E55" t="n">
-        <v>4.19611632880355</v>
+        <v>4.19611632880356</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0000271530821772388</v>
+        <v>0.0000271530821772372</v>
       </c>
       <c r="G55" t="n">
-        <v>0.000134470443937684</v>
+        <v>0.000134470443937705</v>
       </c>
     </row>
     <row r="56">
@@ -4060,7 +4060,7 @@
         <v>1867.0220298102</v>
       </c>
       <c r="C56" t="n">
-        <v>0.298338995664071</v>
+        <v>0.298338995664072</v>
       </c>
       <c r="D56" t="n">
         <v>0.119060051887838</v>
@@ -4083,19 +4083,19 @@
         <v>1217.54298113027</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.592379157253523</v>
+        <v>-0.592379157253524</v>
       </c>
       <c r="D57" t="n">
-        <v>0.118263416518174</v>
+        <v>0.118263416518175</v>
       </c>
       <c r="E57" t="n">
-        <v>-5.00898058498496</v>
+        <v>-5.00898058498494</v>
       </c>
       <c r="F57" t="n">
-        <v>0.000000547190921642863</v>
+        <v>0.000000547190921642931</v>
       </c>
       <c r="G57" t="n">
-        <v>0.00000392550009004663</v>
+        <v>0.00000392550009004711</v>
       </c>
     </row>
     <row r="58">
@@ -4106,19 +4106,19 @@
         <v>1970.29266438077</v>
       </c>
       <c r="C58" t="n">
-        <v>0.626868382714833</v>
+        <v>0.626868382714835</v>
       </c>
       <c r="D58" t="n">
         <v>0.148636342583962</v>
       </c>
       <c r="E58" t="n">
-        <v>4.21746372264727</v>
+        <v>4.21746372264729</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0000247065552302323</v>
+        <v>0.0000247065552302305</v>
       </c>
       <c r="G58" t="n">
-        <v>0.000127393175405885</v>
+        <v>0.000127393175405876</v>
       </c>
     </row>
     <row r="59">
@@ -4129,19 +4129,19 @@
         <v>4314.90841959825</v>
       </c>
       <c r="C59" t="n">
-        <v>0.716406392536635</v>
+        <v>0.716406392536636</v>
       </c>
       <c r="D59" t="n">
-        <v>0.134760174862898</v>
+        <v>0.134760174862899</v>
       </c>
       <c r="E59" t="n">
-        <v>5.31615808057157</v>
+        <v>5.31615808057156</v>
       </c>
       <c r="F59" t="n">
-        <v>0.000000105981085778933</v>
+        <v>0.000000105981085778936</v>
       </c>
       <c r="G59" t="n">
-        <v>0.000000874343957676198</v>
+        <v>0.000000874343957676224</v>
       </c>
     </row>
     <row r="60">
@@ -4158,13 +4158,13 @@
         <v>0.151213381654458</v>
       </c>
       <c r="E60" t="n">
-        <v>6.70933368769296</v>
+        <v>6.70933368769297</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0000000000195515111098066</v>
+        <v>0.0000000000195515111098056</v>
       </c>
       <c r="G60" t="n">
-        <v>0.000000000460857047588298</v>
+        <v>0.000000000460857047588275</v>
       </c>
     </row>
     <row r="61">
@@ -4184,10 +4184,10 @@
         <v>-2.29204224112419</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0219032058009346</v>
+        <v>0.0219032058009345</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0469354410020028</v>
+        <v>0.0469354410020024</v>
       </c>
     </row>
     <row r="62">
@@ -4198,7 +4198,7 @@
         <v>1950.19931347296</v>
       </c>
       <c r="C62" t="n">
-        <v>1.14415613546669</v>
+        <v>1.14415613546668</v>
       </c>
       <c r="D62" t="n">
         <v>0.365411395674886</v>
@@ -4207,10 +4207,10 @@
         <v>3.1311451941818</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00174126049020003</v>
+        <v>0.00174126049020004</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0053205181645001</v>
+        <v>0.00532051816450013</v>
       </c>
     </row>
     <row r="63">
@@ -4221,7 +4221,7 @@
         <v>1683.55662819638</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.871479006743971</v>
+        <v>-0.871479006743973</v>
       </c>
       <c r="D63" t="n">
         <v>0.210915635388517</v>
@@ -4230,10 +4230,10 @@
         <v>-4.13188432018643</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0000359801494334265</v>
+        <v>0.0000359801494334256</v>
       </c>
       <c r="G63" t="n">
-        <v>0.000169620704471868</v>
+        <v>0.000169620704471864</v>
       </c>
     </row>
     <row r="64">
@@ -4250,13 +4250,13 @@
         <v>0.13288702328421</v>
       </c>
       <c r="E64" t="n">
-        <v>3.70024611252411</v>
+        <v>3.7002461125241</v>
       </c>
       <c r="F64" t="n">
-        <v>0.000215390474638087</v>
+        <v>0.000215390474638094</v>
       </c>
       <c r="G64" t="n">
-        <v>0.000797961673045969</v>
+        <v>0.000797961673045956</v>
       </c>
     </row>
     <row r="65">
@@ -4276,10 +4276,10 @@
         <v>3.69762517714339</v>
       </c>
       <c r="F65" t="n">
-        <v>0.000217625910830719</v>
+        <v>0.000217625910830715</v>
       </c>
       <c r="G65" t="n">
-        <v>0.000797961673045969</v>
+        <v>0.000797961673045956</v>
       </c>
     </row>
     <row r="66">
@@ -4290,19 +4290,19 @@
         <v>160.414969036517</v>
       </c>
       <c r="C66" t="n">
-        <v>6.31080962850299</v>
+        <v>6.31080962848257</v>
       </c>
       <c r="D66" t="n">
-        <v>0.781766376180367</v>
+        <v>0.781766376180363</v>
       </c>
       <c r="E66" t="n">
-        <v>8.07250071221658</v>
+        <v>8.07250071219051</v>
       </c>
       <c r="F66" t="n">
-        <v>0.000000000000000688727702513741</v>
+        <v>0.000000000000000688727702660863</v>
       </c>
       <c r="G66" t="n">
-        <v>0.000000000000113640070914767</v>
+        <v>0.000000000000113640070939042</v>
       </c>
     </row>
     <row r="67">
@@ -4322,10 +4322,10 @@
         <v>3.09419614812835</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00197346966314614</v>
+        <v>0.00197346966314615</v>
       </c>
       <c r="G67" t="n">
-        <v>0.00592040898943843</v>
+        <v>0.00592040898943847</v>
       </c>
     </row>
     <row r="68">
@@ -4336,7 +4336,7 @@
         <v>1153.78042243434</v>
       </c>
       <c r="C68" t="n">
-        <v>1.13277921774</v>
+        <v>1.13277921773999</v>
       </c>
       <c r="D68" t="n">
         <v>0.196191800157322</v>
@@ -4345,10 +4345,10 @@
         <v>5.77383568952241</v>
       </c>
       <c r="F68" t="n">
-        <v>0.000000007748700173721</v>
+        <v>0.00000000774870017372124</v>
       </c>
       <c r="G68" t="n">
-        <v>0.000000098348886820305</v>
+        <v>0.0000000983488868203081</v>
       </c>
     </row>
     <row r="69">
@@ -4391,10 +4391,10 @@
         <v>2.41651617132096</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0156698301657332</v>
+        <v>0.0156698301657331</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0352944936432244</v>
+        <v>0.0352944936432246</v>
       </c>
     </row>
     <row r="71">
@@ -4405,19 +4405,19 @@
         <v>1110.0119900932</v>
       </c>
       <c r="C71" t="n">
-        <v>0.458840424475033</v>
+        <v>0.458840424475032</v>
       </c>
       <c r="D71" t="n">
         <v>0.150269088260291</v>
       </c>
       <c r="E71" t="n">
-        <v>3.0534584976003</v>
+        <v>3.05345849760028</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00226220010711779</v>
+        <v>0.00226220010711787</v>
       </c>
       <c r="G71" t="n">
-        <v>0.00654847399428835</v>
+        <v>0.00654847399428857</v>
       </c>
     </row>
     <row r="72">
@@ -4428,19 +4428,19 @@
         <v>960.941802357225</v>
       </c>
       <c r="C72" t="n">
-        <v>0.639590075820902</v>
+        <v>0.639590075820901</v>
       </c>
       <c r="D72" t="n">
         <v>0.137850125728093</v>
       </c>
       <c r="E72" t="n">
-        <v>4.63974967336976</v>
+        <v>4.63974967336977</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0000034883146351673</v>
+        <v>0.00000348831463516711</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0000205561398143787</v>
+        <v>0.0000205561398143776</v>
       </c>
     </row>
     <row r="73">
@@ -4451,7 +4451,7 @@
         <v>1213.34455865418</v>
       </c>
       <c r="C73" t="n">
-        <v>0.972902704255961</v>
+        <v>0.97290270425596</v>
       </c>
       <c r="D73" t="n">
         <v>0.304887612251746</v>
@@ -4460,10 +4460,10 @@
         <v>3.19102077342727</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00141771086445594</v>
+        <v>0.00141771086445595</v>
       </c>
       <c r="G73" t="n">
-        <v>0.00441362816292888</v>
+        <v>0.00441362816292893</v>
       </c>
     </row>
     <row r="74">
@@ -4497,19 +4497,19 @@
         <v>1101.72639993163</v>
       </c>
       <c r="C75" t="n">
-        <v>0.403346127032517</v>
+        <v>0.403346127032516</v>
       </c>
       <c r="D75" t="n">
-        <v>0.11978449712234</v>
+        <v>0.119784497122339</v>
       </c>
       <c r="E75" t="n">
         <v>3.36726485248393</v>
       </c>
       <c r="F75" t="n">
-        <v>0.000759177392796245</v>
+        <v>0.00075917739279625</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0025052853962276</v>
+        <v>0.00250528539622762</v>
       </c>
     </row>
     <row r="76">
@@ -4552,10 +4552,10 @@
         <v>5.41981658202446</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0000000596602131900402</v>
+        <v>0.0000000596602131900411</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00000057905501037392</v>
+        <v>0.000000579055010373928</v>
       </c>
     </row>
     <row r="78">
@@ -4575,10 +4575,10 @@
         <v>2.86189364167438</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0042111819813546</v>
+        <v>0.00421118198135458</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0117521253230408</v>
+        <v>0.0117521253230406</v>
       </c>
     </row>
   </sheetData>

--- a/tables/output/TableS3-SF-dysreg.xlsx
+++ b/tables/output/TableS3-SF-dysreg.xlsx
@@ -2876,7 +2876,7 @@
         <v>0.0177095494749196</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0389610088448231</v>
+        <v>0.038961008844823</v>
       </c>
     </row>
     <row r="5">
@@ -3120,7 +3120,7 @@
         <v>-0.308777961962955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0787228444338641</v>
+        <v>0.078722844433864</v>
       </c>
       <c r="E15" t="n">
         <v>-3.92234254470267</v>
@@ -3919,7 +3919,7 @@
         <v>150</v>
       </c>
       <c r="B50" t="n">
-        <v>2248.54625600321</v>
+        <v>2248.5462560032</v>
       </c>
       <c r="C50" t="n">
         <v>0.540216206993242</v>

--- a/tables/output/TableS3-SF-dysreg.xlsx
+++ b/tables/output/TableS3-SF-dysreg.xlsx
@@ -2876,7 +2876,7 @@
         <v>0.0177095494749196</v>
       </c>
       <c r="G4" t="n">
-        <v>0.038961008844823</v>
+        <v>0.0389610088448231</v>
       </c>
     </row>
     <row r="5">
@@ -3120,7 +3120,7 @@
         <v>-0.308777961962955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.078722844433864</v>
+        <v>0.0787228444338641</v>
       </c>
       <c r="E15" t="n">
         <v>-3.92234254470267</v>
@@ -3919,7 +3919,7 @@
         <v>150</v>
       </c>
       <c r="B50" t="n">
-        <v>2248.5462560032</v>
+        <v>2248.54625600321</v>
       </c>
       <c r="C50" t="n">
         <v>0.540216206993242</v>
